--- a/data/trans_bre/P16A12-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Dificultad-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A12-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.7064717973318313</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.643057082633199</v>
+        <v>1.643057082633198</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1160269934901638</v>
@@ -649,7 +649,7 @@
         <v>-0.07334924594715141</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1842913872709829</v>
+        <v>0.1842913872709827</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.772075405688537</v>
+        <v>-1.818954207761464</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1168890612328514</v>
+        <v>0.5113733688742459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.18176424649856</v>
+        <v>-3.017689888713938</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.309864611377804</v>
+        <v>-1.394898057675326</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1948843414828034</v>
+        <v>-0.2016242947412971</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009062096843385941</v>
+        <v>0.06155684753973561</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2974589582929516</v>
+        <v>-0.2897496869062128</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1170865970439784</v>
+        <v>-0.1266497045605897</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.552185727074939</v>
+        <v>3.75814097645694</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.199596426898744</v>
+        <v>5.333870300504523</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.455050631065841</v>
+        <v>1.850000971484278</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.698713234525949</v>
+        <v>4.402193060085301</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6072485837309686</v>
+        <v>0.6268728225081016</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8681097714041197</v>
+        <v>0.8738483553239931</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1780767659917607</v>
+        <v>0.2272302046376338</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6759329715527612</v>
+        <v>0.6074780341831203</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.43089289993118</v>
+        <v>-2.530588626266118</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3332816892463575</v>
+        <v>0.2994206819666273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.443879992898665</v>
+        <v>-3.150313553711047</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.25984236007385</v>
+        <v>-2.395842601507664</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3474854613437832</v>
+        <v>-0.3537991792379448</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04058292458595121</v>
+        <v>0.02746083421746736</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3436746564034514</v>
+        <v>-0.3228415143501973</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2277777898934516</v>
+        <v>-0.2360625745124044</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.439599125283133</v>
+        <v>1.510133697392903</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.157666110633053</v>
+        <v>5.190327593946555</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.908920944035775</v>
+        <v>1.76579987313616</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.835059129811639</v>
+        <v>1.848464899544398</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2805672869557714</v>
+        <v>0.3049417208735847</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9740180279865347</v>
+        <v>0.9755159017131186</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2590917217551562</v>
+        <v>0.2411361125726769</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2531384515153475</v>
+        <v>0.2497873838424139</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6569588656928012</v>
+        <v>-0.6176706201347325</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.054699678773542</v>
+        <v>-4.020123155302804</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.311012877728451</v>
+        <v>-0.926121693489642</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.714482751415636</v>
+        <v>-5.563056168658482</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1467463878502161</v>
+        <v>-0.1476160265571752</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4187678758103701</v>
+        <v>-0.4147375780413534</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1770855620918778</v>
+        <v>-0.1326523902520868</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5332486991249836</v>
+        <v>-0.5086862448891083</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.085988243247277</v>
+        <v>2.832482969905984</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.021013172728703</v>
+        <v>0.9463400975781843</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.106838660686675</v>
+        <v>4.180918451020434</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.751287239202509</v>
+        <v>-1.637082614912588</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9800985286825383</v>
+        <v>0.8490268843146366</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1509001905986094</v>
+        <v>0.1489628237614655</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7700586096047995</v>
+        <v>0.8049577104895168</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.204998353553104</v>
+        <v>-0.194308778852862</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.09634690296556</v>
+        <v>-3.755836890104448</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.584436729272144</v>
+        <v>-4.90699764377964</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.522688432446638</v>
+        <v>-5.786180521524032</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.14796743307741</v>
+        <v>-4.076083012911623</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7123966631204549</v>
+        <v>-0.6677830860557223</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5166526400749185</v>
+        <v>-0.5412000113148726</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6239997838118854</v>
+        <v>-0.6423782136227515</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4617435203853893</v>
+        <v>-0.4561251495518586</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.16717078421352</v>
+        <v>1.50631785721952</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.939290888642865</v>
+        <v>1.678756434123979</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4106199455271815</v>
+        <v>0.2411263181881952</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.194683255288625</v>
+        <v>-0.1979980931966338</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3602350496864873</v>
+        <v>0.5694663248957729</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3754311536170388</v>
+        <v>0.3268577458926862</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1279647275404728</v>
+        <v>0.06217106838622014</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.02870268815603469</v>
+        <v>-0.0269275469572931</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.4762568034160197</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-1.299709685914893</v>
+        <v>-1.299709685914895</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1083143200980099</v>
@@ -1049,7 +1049,7 @@
         <v>-0.05749222377776855</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1495963634963497</v>
+        <v>-0.1495963634963499</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5911645882368891</v>
+        <v>-0.4699309556458972</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1748197254380293</v>
+        <v>-0.1205872500678437</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.75193403865485</v>
+        <v>-1.835892926616191</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.325189745922713</v>
+        <v>-2.368942555200834</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.0970930142646358</v>
+        <v>-0.0809212050598585</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.02404715169845817</v>
+        <v>-0.01547089671083767</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1962817237868226</v>
+        <v>-0.2078741898335503</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2531152033244422</v>
+        <v>-0.2523434134823865</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.642365993146353</v>
+        <v>1.710059016326055</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.374600096617992</v>
+        <v>2.559868817795697</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9537050763222403</v>
+        <v>0.9703933762169268</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.1905688339821314</v>
+        <v>-0.2677580760779232</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3363506875682947</v>
+        <v>0.3634365483851635</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3595134458563598</v>
+        <v>0.3892661006207205</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1275607618323487</v>
+        <v>0.127717894199201</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.03057511462459083</v>
+        <v>-0.03203661090788826</v>
       </c>
     </row>
     <row r="19">
